--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -866,12 +866,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="96cf5878-74d7-460f-a445-eb4c85d99a58">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="833e474d-e424-4496-95f1-98e7780be11a" xsi:nil="true"/>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
@@ -885,133 +880,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008FCB31E966C8774491137362174F34D4" ma:contentTypeVersion="14" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="e9711a464f473d2a9f839ba9a89c4f01">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96cf5878-74d7-460f-a445-eb4c85d99a58" xmlns:ns3="833e474d-e424-4496-95f1-98e7780be11a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68a2c7531a8315e574bf4acb85bd72ea" ns2:_="" ns3:_="">
-    <xsd:import namespace="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <xsd:import namespace="833e474d-e424-4496-95f1-98e7780be11a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="0" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="866e8b1b03d2d7cd5e03eb23dfc18969">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bfd4dfa73aff86833de96de8900c00d">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
+              <xsd:all/>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="96cf5878-74d7-460f-a445-eb4c85d99a58" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="833e474d-e424-4496-95f1-98e7780be11a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cd527c49-3208-4c55-a151-d8f89dfb23f9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="833e474d-e424-4496-95f1-98e7780be11a">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1122,5 +1002,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C6D771-2978-4F6F-817F-27D4E4E34A16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA94D6E1-72C0-452D-9F05-FF4AF1806FA3}"/>
 </file>